--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3200286.625508344</v>
+        <v>3304466.259959417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283177</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>169.5015886993149</v>
+        <v>197.8131590386675</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189239</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>140.2348378640733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>127.6752559270063</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>40.12741312164705</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>227.7172236952955</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.50286836346307</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>61.36917500887012</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.5318633148427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>322.3633157507823</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>18.41833046690939</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>185.2941738792791</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>161.1945470524472</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.314903109061</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>85.89092205733026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U19" t="n">
-        <v>23.08134457786378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>179.4515336021211</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>245.5965749716198</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>132.473663369464</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>36.00502760852028</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812393</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922687</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>34.45703212905001</v>
       </c>
       <c r="U31" t="n">
         <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
         <v>225.709655389037</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986277</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272881</v>
@@ -3244,13 +3246,13 @@
         <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>40.96105405076786</v>
+        <v>210.8399757234862</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520946</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444149</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599987</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272881</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238278</v>
+        <v>124.8808320771242</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X37" t="n">
         <v>225.709655389037</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797053</v>
+        <v>7.602497644399736</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788183223</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>122.4770547252865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>283.8423909339784</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3154.392095650268</v>
+        <v>3015.503881380036</v>
       </c>
       <c r="V2" t="n">
-        <v>2823.329208306698</v>
+        <v>3015.503881380036</v>
       </c>
       <c r="W2" t="n">
-        <v>2470.560553036583</v>
+        <v>2662.735226109921</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.094794775503</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="3">
@@ -4398,49 +4400,49 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>779.2356544403336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>779.2356544403336</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>490.1327875659772</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>235.4482993600903</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W4" t="n">
-        <v>235.4482993600903</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>118.0769030736991</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>107.0448569590996</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1532.572829196571</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1532.572829196571</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1146.784576598327</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4804,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139987</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878907</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903096</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>812.4521743667135</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>812.4521743667135</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>812.4521743667135</v>
+        <v>444.6183067425364</v>
       </c>
       <c r="X10" t="n">
-        <v>812.4521743667135</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.4521743667135</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
@@ -5042,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>640.1060525954239</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954239</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1814.638305710058</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1559.953817504171</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1270.536647467211</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1042.547096569193</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>821.7545174256634</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.9885622678</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369783</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.146591037919</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.462102832032</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.044932795071</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.383732054327</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.69924384844</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6318,10 +6320,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.767110287001</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>921.8309273590944</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>771.7142879467586</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>623.8011943643655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>476.9112468664551</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>309.7151475813351</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y28" t="n">
-        <v>1272.415575117241</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400746</v>
+        <v>948.5505208511898</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429797</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429797</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429797</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578599</v>
@@ -6619,7 +6621,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038346</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2412.158000621625</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>2123.082773965823</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>1868.398285759937</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1578.981115722976</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713844</v>
+        <v>1350.991564824959</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703141</v>
+        <v>1130.198985681429</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.580456911439</v>
+        <v>783.5579673960125</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835321</v>
+        <v>614.6217844681057</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711966</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888037</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908935</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038346</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783226</v>
+        <v>1475.416181406742</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783226</v>
+        <v>1185.999011369782</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.021500885209</v>
+        <v>1185.999011369782</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.228921741679</v>
+        <v>965.206432226252</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362697</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188003</v>
+        <v>931.4710609784055</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908935</v>
+        <v>762.5348780504987</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908935</v>
+        <v>612.4182386381631</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908935</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908935</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038346</v>
@@ -7126,19 +7128,19 @@
         <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648822</v>
+        <v>1851.318825887153</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611861</v>
+        <v>1561.901655850192</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713844</v>
+        <v>1333.912104952175</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703141</v>
+        <v>1113.119525808645</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2815.530845237133</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C40" t="n">
-        <v>2646.594662309226</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D40" t="n">
-        <v>2646.594662309226</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
         <v>2337.686731866304</v>
@@ -7354,28 +7356,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4498.739789984627</v>
+        <v>4616.108158101097</v>
       </c>
       <c r="T40" t="n">
-        <v>4279.138325007569</v>
+        <v>4396.506693124038</v>
       </c>
       <c r="U40" t="n">
-        <v>3990.063098351767</v>
+        <v>4107.431466468236</v>
       </c>
       <c r="V40" t="n">
-        <v>3735.37861014588</v>
+        <v>3852.746978262349</v>
       </c>
       <c r="W40" t="n">
-        <v>3445.96144010892</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="X40" t="n">
-        <v>3217.971889210903</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y40" t="n">
-        <v>2997.179310067373</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7390,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362684</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876722</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597655</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597655</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597655</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597655</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614416</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179117</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>3610.463413652314</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>3382.473862754297</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.9899273367968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.0905472182273</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>200.6320762792607</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U19" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>72.68610972170686</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>40.58789941762433</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.821049476759839</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405037</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>182.9484181982381</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>211.17658927306</v>
+        <v>41.29766760034167</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392193845</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>127.2568112467037</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392193913</v>
+        <v>173.4237883572449</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>113.5907959652909</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038214</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>129.6605885985415</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.680607402612623</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778556</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.659507327525017e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189211</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26442,19 +26444,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189213</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151831</v>
+        <v>-791337.8375151829</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124095</v>
+        <v>537406.9082124094</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124098</v>
       </c>
       <c r="E6" t="n">
-        <v>283850.3641178508</v>
+        <v>283850.3641178511</v>
       </c>
       <c r="F6" t="n">
+        <v>609262.8259252066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>609262.8259252058</v>
+      </c>
+      <c r="H6" t="n">
+        <v>609262.8259252066</v>
+      </c>
+      <c r="I6" t="n">
         <v>609262.8259252062</v>
-      </c>
-      <c r="G6" t="n">
-        <v>609262.8259252063</v>
-      </c>
-      <c r="H6" t="n">
-        <v>609262.8259252063</v>
-      </c>
-      <c r="I6" t="n">
-        <v>609262.8259252063</v>
       </c>
       <c r="J6" t="n">
         <v>391731.6235279287</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.8259252058</v>
+        <v>609262.8259252061</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252063</v>
+        <v>609262.8259252065</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.797989694</v>
+        <v>524207.7979896947</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252063</v>
+        <v>609262.8259252062</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252058</v>
+        <v>609262.8259252062</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252064</v>
+        <v>609262.8259252062</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>81.49358325958704</v>
+        <v>53.18201292023443</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>49.53418746736861</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>90.90939742508849</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>254.4803512656734</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>121.5237450221175</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>164.340480380167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2019783486379</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>84.51272999092913</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>267.7935077387035</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>101.2288244573119</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="14">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31613,13 +31615,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>755.4040473746019</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119649</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,16 +33979,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>187.2159464875248</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>624.0623352912686</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35586,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096351</v>
@@ -36996,13 +36998,13 @@
         <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.6317733066251</v>
@@ -37063,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096351</v>
@@ -37233,13 +37235,13 @@
         <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.6317733066251</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096351</v>
@@ -37470,13 +37472,13 @@
         <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.6317733066251</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>55.87423440419153</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3304466.259959417</v>
+        <v>3300453.649945424</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>131.9577048658604</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8131590386675</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165711</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.08802744677385</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>40.12741312164705</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>140.3578935194482</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.50286836346307</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>37.67709528776658</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>322.3633157507823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>89.59886223686162</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.281855523864</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>185.2941738792791</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U13" t="n">
-        <v>161.1945470524472</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.314903109061</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>111.3213230702134</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>151.8518831495024</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>179.4515336021211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>67.60860312451685</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>245.5965749716198</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>36.00502760852028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>34.45703212905001</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>210.8399757234862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>124.8808320771242</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>7.602497644399736</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.84316668127826</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>283.8423909339784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1340.243929312812</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>954.4556767145675</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520491</v>
       </c>
       <c r="U2" t="n">
-        <v>3015.503881380036</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>3015.503881380036</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2662.735226109921</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.269467848841</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.13013587303</v>
+        <v>1698.509627919562</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811116</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999846</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387333</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332778</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601628</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,55 +4406,55 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297195</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431611</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199868</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471666</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266134</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.75919150118</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>751.9508228902794</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>601.8341834779436</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>453.9210898955505</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976401</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723591</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.334869969623</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="W4" t="n">
-        <v>342.3669689068678</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="X4" t="n">
-        <v>342.3669689068678</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181863</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>869.0763550278973</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>510.8106564211468</v>
+        <v>512.2748146547619</v>
       </c>
       <c r="E5" t="n">
-        <v>125.0224038229026</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>118.0769030736991</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>107.0448569590996</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>104.5697884400285</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1901.535346136983</v>
+        <v>1734.047335491683</v>
       </c>
       <c r="C8" t="n">
-        <v>1532.572829196571</v>
+        <v>1365.084818551272</v>
       </c>
       <c r="D8" t="n">
-        <v>1532.572829196571</v>
+        <v>1006.819119944521</v>
       </c>
       <c r="E8" t="n">
-        <v>1146.784576598327</v>
+        <v>621.0308673462769</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>210.0449625566693</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>199.0129164420699</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176916</v>
+        <v>2510.786507531617</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201105</v>
+        <v>2120.647175555805</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445191</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>444.6183067425364</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>923.067041434951</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954239</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954239</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.638305710058</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.953817504171</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.536647467211</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.547096569193</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.7545174256634</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,7 +5354,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1689.976512844124</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.559342807163</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.777212765616</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377091</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.1948847076511</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.383732054327</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.69924384844</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.282073811479</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679489</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6235,16 +6235,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511898</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408901</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2412.158000621625</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965823</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759937</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722976</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.991564824959</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.198985681429</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960125</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681057</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557701</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557701</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1475.416181406742</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.999011369782</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.999011369782</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.206432226252</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,34 +6922,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,16 +6958,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784055</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504987</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381631</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557701</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.46108051051</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4616.108158101097</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4396.506693124038</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4107.431466468236</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3852.746978262349</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3563.329808225389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556949</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,7 +7660,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3200.825397924057</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3610.463413652314</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3382.473862754297</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3382.473862754297</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U13" t="n">
-        <v>124.9899273367968</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>40.0905472182273</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0841272570749</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>72.68610972170686</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.68610972170704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.58789941762433</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>182.9484181982381</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.29766760034167</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>127.2568112467037</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.4237883572449</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>113.5907959652909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.680607402612623</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618132</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="14">
@@ -26319,22 +26319,22 @@
         <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
@@ -26343,19 +26343,19 @@
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.659507327525017e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405234</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189211</v>
+        <v>16046.58397189185</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26444,13 +26444,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151829</v>
+        <v>-791337.8375151837</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124101</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124098</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>283850.3641178511</v>
+        <v>283502.9848634942</v>
       </c>
       <c r="F6" t="n">
-        <v>609262.8259252066</v>
+        <v>608915.4466708497</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252058</v>
+        <v>608915.4466708495</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252066</v>
+        <v>608915.4466708491</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708491</v>
       </c>
       <c r="J6" t="n">
-        <v>391731.6235279287</v>
+        <v>391384.2442735717</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.8259252061</v>
+        <v>608915.4466708491</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252065</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.7979896947</v>
+        <v>523860.4187353376</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708493</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252062</v>
+        <v>608915.4466708496</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>274.9183408758511</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.18201292023443</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754693</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.90939742508849</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>254.4803512656734</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>110.6372784394538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.7439527351648</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>107.0779196265542</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>84.51272999092913</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.0089021504588</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>101.2288244573119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-6.379141014064722e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>-1.928873612557473e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>755.4040473746019</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>361.5531172119649</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>187.2159464875248</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>624.0623352912686</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>219.4190832899467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>55.87423440419153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3300453.649945424</v>
+        <v>3302214.180248208</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>131.9577048658604</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>128.8771852996418</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.999469165711</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034764</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>72.08802744677385</v>
+        <v>72.08802744677222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>140.3578935194482</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>58.99649157474398</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>37.67709528776658</v>
+        <v>72.0880274467722</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.608807415962</v>
       </c>
       <c r="H8" t="n">
-        <v>89.59886223686162</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.281855523864</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6197054599889589</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>67.60860312451685</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.34420421319571</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>46.29306638367346</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919562</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919562</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.243929312812</v>
+        <v>1450.534597785713</v>
       </c>
       <c r="E2" t="n">
-        <v>954.4556767145675</v>
+        <v>1064.746345187469</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>653.7604403978614</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>238.6879902428579</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136269</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520491</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180642</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919562</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919562</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811116</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999846</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387333</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332778</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601628</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215814</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297195</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431611</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199868</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471666</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266134</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.75919150118</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902794</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779436</v>
+        <v>601.8341834779419</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955505</v>
+        <v>453.9210898955488</v>
       </c>
       <c r="F4" t="n">
-        <v>307.0311423976401</v>
+        <v>307.0311423976384</v>
       </c>
       <c r="G4" t="n">
-        <v>139.3283057723591</v>
+        <v>139.3283057723574</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.334869969623</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547619</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3073.539503116623</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2742.476615773052</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2389.707960502938</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600384</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477026</v>
+        <v>601.8341834779419</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653095</v>
+        <v>453.9210898955488</v>
       </c>
       <c r="F7" t="n">
-        <v>272.2726250653095</v>
+        <v>307.0311423976384</v>
       </c>
       <c r="G7" t="n">
-        <v>104.5697884400285</v>
+        <v>139.3283057723574</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491683</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.084818551272</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.819119944521</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E8" t="n">
-        <v>621.0308673462769</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566693</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G8" t="n">
-        <v>199.0129164420699</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792697</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792697</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531617</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555805</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5415,25 +5415,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,19 +5460,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
         <v>1202.091371290588</v>
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5755,19 +5755,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3568999154069</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4207169875</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>559.3040775751642</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>411.3909839927711</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>411.3909839927711</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>244.1948847076511</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2315.933335172869</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>140.5773361627936</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7833,10 +7833,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>144.8013425629423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.68610972170704</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6820817884489</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>80.44045370237457</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>34.97276993489207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="10">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778555</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405234</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26441,7 +26441,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189198</v>
@@ -26450,7 +26450,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151837</v>
+        <v>-791337.8375151828</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124101</v>
+        <v>537406.9082124092</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124096</v>
+        <v>537406.9082124091</v>
       </c>
       <c r="E6" t="n">
-        <v>283502.9848634942</v>
+        <v>283815.6261924153</v>
       </c>
       <c r="F6" t="n">
-        <v>608915.4466708497</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="G6" t="n">
-        <v>608915.4466708495</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="H6" t="n">
-        <v>608915.4466708491</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="I6" t="n">
-        <v>608915.4466708491</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="J6" t="n">
-        <v>391384.2442735717</v>
+        <v>391696.8856024931</v>
       </c>
       <c r="K6" t="n">
-        <v>608915.4466708491</v>
+        <v>609228.0879997703</v>
       </c>
       <c r="L6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.087999771</v>
       </c>
       <c r="M6" t="n">
-        <v>523860.4187353376</v>
+        <v>524173.0600642585</v>
       </c>
       <c r="N6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="O6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="P6" t="n">
-        <v>608915.4466708496</v>
+        <v>609228.0879997703</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.9183408758511</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>165.7305790876787</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.66698746754693</v>
+        <v>72.66698746754857</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>110.6372784394538</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.0779196265542</v>
+        <v>72.66698746754858</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0089021504588</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351642</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.379141014064722e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.928873612557473e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014231</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
